--- a/Practice_task03.xlsx
+++ b/Practice_task03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7906fa02fae7939c/Desktop/github/Data-analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Desktop\github\Data-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{5E8F5B79-D9ED-4BAE-A6F9-9C86423295E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D17C19F-A36E-4C00-9E1B-F96E19CEE9ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845A59A2-EE70-4995-A57B-A708334A2C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{94C4ADFE-B2FB-434F-9826-676FD25A9114}"/>
   </bookViews>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,7 +859,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="str">
+        <f>RIGHT(A2,LEN(A2)-FIND(".",A2))</f>
+        <v>google.com</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
